--- a/testsuite/TestScenarios.xlsx
+++ b/testsuite/TestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20400" windowHeight="7470" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="10635" windowHeight="3285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="browser" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>BrowserName</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Regression</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
     <t>Avinaba</t>
   </si>
   <si>
@@ -116,6 +113,15 @@
   </si>
   <si>
     <t>DuplicacyChk</t>
+  </si>
+  <si>
+    <t>RegisterCUUser</t>
+  </si>
+  <si>
+    <t>RegisterCUUserErrorChk</t>
+  </si>
+  <si>
+    <t>ErrorChk</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,16 +960,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -972,16 +978,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -989,9 +995,15 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>

--- a/testsuite/TestScenarios.xlsx
+++ b/testsuite/TestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="10635" windowHeight="3285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="14190" windowHeight="6030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="browser" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="FunctionalTest" sheetId="5" r:id="rId4"/>
     <sheet name="Regression" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>BrowserName</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>ErrorChk</t>
+  </si>
+  <si>
+    <t>DuplicacyChkEmp</t>
+  </si>
+  <si>
+    <t>9417</t>
+  </si>
+  <si>
+    <t>arindamc@rssoftware.co.in</t>
+  </si>
+  <si>
+    <t>DuplicacyChkEmail</t>
   </si>
 </sst>
 </file>
@@ -194,12 +206,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,320 +904,343 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/testsuite/TestScenarios.xlsx
+++ b/testsuite/TestScenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>BrowserName</t>
   </si>
@@ -115,15 +115,6 @@
     <t>DuplicacyChk</t>
   </si>
   <si>
-    <t>RegisterCUUser</t>
-  </si>
-  <si>
-    <t>RegisterCUUserErrorChk</t>
-  </si>
-  <si>
-    <t>ErrorChk</t>
-  </si>
-  <si>
     <t>DuplicacyChkEmp</t>
   </si>
   <si>
@@ -134,6 +125,27 @@
   </si>
   <si>
     <t>DuplicacyChkEmail</t>
+  </si>
+  <si>
+    <t>8787878787</t>
+  </si>
+  <si>
+    <t>DuplicacyChkmob</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>userSetup</t>
+  </si>
+  <si>
+    <t>mandatoryErrorChk</t>
+  </si>
+  <si>
+    <t>RegisterCUUserMandatoryChk</t>
+  </si>
+  <si>
+    <t>RegisterCUUserDupChk</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,10 +913,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,116 +985,130 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1092,7 +1118,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1101,7 +1127,9 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1236,9 +1264,17 @@
       <c r="E29" s="8"/>
       <c r="F29" s="7"/>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/testsuite/TestScenarios.xlsx
+++ b/testsuite/TestScenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>BrowserName</t>
   </si>
@@ -535,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,7 +694,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1011,7 +1011,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>27</v>
@@ -1110,9 +1110,15 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
     </row>

--- a/testsuite/TestScenarios.xlsx
+++ b/testsuite/TestScenarios.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>BrowserName</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t>RegisterCUUserDupChk</t>
+  </si>
+  <si>
+    <t>BBCUAdminUserSubmission</t>
+  </si>
+  <si>
+    <t>hirapal~~HR100~~Hira~~Pal~~hira.pal@test.com~~9874587236~~HR~~Manager~~Yes</t>
+  </si>
+  <si>
+    <t>RegisterCUUserCreation</t>
+  </si>
+  <si>
+    <t>BBCUUserSubmission</t>
+  </si>
+  <si>
+    <t>hiraroy~~HA100~~Hira~~Roy~~hira.roy@test.com~~9874587111~~HR~~Manager~~No</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -228,6 +243,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -916,7 +937,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +946,7 @@
     <col min="2" max="2" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -1011,7 +1032,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>27</v>
@@ -1117,29 +1138,45 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,8 +1318,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/testsuite/TestScenarios.xlsx
+++ b/testsuite/TestScenarios.xlsx
@@ -13,7 +13,7 @@
     <sheet name="FunctionalTest" sheetId="5" r:id="rId4"/>
     <sheet name="Regression" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>BrowserName</t>
   </si>
@@ -133,9 +133,6 @@
     <t>DuplicacyChkmob</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>userSetup</t>
   </si>
   <si>
@@ -161,6 +158,39 @@
   </si>
   <si>
     <t>hiraroy~~HA100~~Hira~~Roy~~hira.roy@test.com~~9874587111~~HR~~Manager~~No</t>
+  </si>
+  <si>
+    <t>RegisterOUAdminCreation</t>
+  </si>
+  <si>
+    <t>userSetupOU</t>
+  </si>
+  <si>
+    <t>BBOUAdminUserSubmission</t>
+  </si>
+  <si>
+    <t>(KA11)GSTone~~admin1~~Amal~~Sen~~amal.sen1@test.com~~9874511121~~HR~~Manager</t>
+  </si>
+  <si>
+    <t>PendingUserListCU</t>
+  </si>
+  <si>
+    <t>Login ID~~BBCU_~~BBPOU Name~~(DC99)DCB Bank</t>
+  </si>
+  <si>
+    <t>SearchandApproveCU</t>
+  </si>
+  <si>
+    <t>RejectUser</t>
+  </si>
+  <si>
+    <t>Login ID~~BBCU_~~Test Comments</t>
+  </si>
+  <si>
+    <t>searchgridfilter</t>
+  </si>
+  <si>
+    <t>rssoftware</t>
   </si>
 </sst>
 </file>
@@ -233,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -246,7 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,7 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -934,17 +969,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -1006,27 +1041,27 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>29</v>
@@ -1041,10 +1076,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1059,10 +1094,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>29</v>
@@ -1077,13 +1112,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>6</v>
@@ -1093,10 +1128,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>33</v>
@@ -1104,17 +1139,17 @@
       <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>35</v>
@@ -1122,14 +1157,14 @@
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -1145,78 +1180,126 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,13 +1398,16 @@
       <c r="E30" s="8"/>
       <c r="F30" s="7"/>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="E13" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>